--- a/Statistics/Master/2019/Weekly/August/Week of August 19, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 19, 2019.xlsx
@@ -3677,10 +3677,8 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B15" s="20" t="inlineStr">
-        <is>
-          <t>Bursar</t>
-        </is>
+      <c r="B15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="C15" s="20" t="n">
         <v>7</v>
@@ -3688,10 +3686,8 @@
       <c r="D15" s="20" t="n">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="inlineStr">
-        <is>
-          <t>Financial Aid</t>
-        </is>
+      <c r="E15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="20" t="n">
         <v>6</v>
@@ -3699,10 +3695,8 @@
       <c r="G15" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>Registrar</t>
-        </is>
+      <c r="H15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="I15" s="20" t="n">
         <v>1</v>
@@ -3710,10 +3704,8 @@
       <c r="J15" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="20" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
+      <c r="K15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="L15" s="20" t="n">
         <v>2</v>
